--- a/guided-backpropagation.xlsx
+++ b/guided-backpropagation.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="train1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,4 +500,85 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/guided-backpropagation.xlsx
+++ b/guided-backpropagation.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="train" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="train1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="train2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,4 +582,85 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visulization Method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Observation Module</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Binary</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Complementary</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>